--- a/Proyecto/Sprints/Sprint 2/Revisiones/DEAT_Revision_CodigoGrupo7.xlsx
+++ b/Proyecto/Sprints/Sprint 2/Revisiones/DEAT_Revision_CodigoGrupo7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guille\Documents\Facultad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED55927E-0D47-40C9-8F26-1BAC2328DF98}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFD9D24-AF68-4F7C-957F-46DC9A94BABD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="679" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7488" tabRatio="679" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos_Prueba" sheetId="27" r:id="rId1"/>
@@ -229,9 +229,6 @@
     <t>1, 2, 3, 4, 5</t>
   </si>
   <si>
-    <t>Menor</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
@@ -342,6 +339,9 @@
     <t>1. El sistema muestra la pantalla “Realizar un pedido de lo que sea”.
 3 y 4. El sistema muestra un mensaje de error “No se ingresó dirección de destino”.
 5.  El sistema muestra un mensaje de error “No se pudo realizar el pedido.</t>
+  </si>
+  <si>
+    <t>Fallo</t>
   </si>
 </sst>
 </file>
@@ -837,18 +837,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -858,21 +846,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -881,9 +860,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -1015,6 +991,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2153,39 +2153,39 @@
   </sheetPr>
   <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="3" width="44" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="43.109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="38.109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="52" style="10" customWidth="1"/>
     <col min="8" max="8" width="22" style="10" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="19" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="2" customWidth="1"/>
     <col min="13" max="13" width="22" style="10" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="19" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="19" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="22" style="10" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="19" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="2"/>
+    <col min="19" max="19" width="9.88671875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" style="6" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" style="19" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -2218,15 +2218,15 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -2253,13 +2253,13 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+    <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
@@ -2286,13 +2286,13 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+    <row r="4" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -2319,12 +2319,12 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="81" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="73" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="33"/>
@@ -2354,7 +2354,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -2380,24 +2380,24 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:31" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="36" t="s">
+    <row r="7" spans="1:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:31" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="1:31" ht="24" x14ac:dyDescent="0.2">
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+    </row>
+    <row r="9" spans="1:31" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -2441,7 +2441,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -2455,41 +2455,41 @@
       <c r="K10" s="18"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:31" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:31" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="42" t="s">
+      <c r="C11" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="G11" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="62" t="s">
+      <c r="I11" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="59" t="s">
+      <c r="J11" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="91">
+      <c r="K11" s="83">
         <v>6</v>
       </c>
-      <c r="L11" s="92">
+      <c r="L11" s="84">
         <v>43396</v>
       </c>
       <c r="M11" s="2"/>
@@ -2499,19 +2499,19 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:31" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="80"/>
+    <row r="12" spans="1:31" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="72"/>
       <c r="M12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -2519,19 +2519,19 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="57"/>
+    <row r="13" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="49"/>
       <c r="M13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2539,19 +2539,19 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="58"/>
+    <row r="14" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -2559,41 +2559,41 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:31" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+    <row r="15" spans="1:31" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="46" t="s">
+      <c r="G15" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="H15" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="L15" s="92">
+      <c r="L15" s="84">
         <v>43396</v>
       </c>
       <c r="M15" s="2"/>
@@ -2603,19 +2603,19 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:31" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="58"/>
+    <row r="16" spans="1:31" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="65"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="50"/>
       <c r="M16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -2623,41 +2623,41 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" ht="108" x14ac:dyDescent="0.2">
-      <c r="A17" s="76" t="s">
+    <row r="17" spans="1:21" ht="96" x14ac:dyDescent="0.3">
+      <c r="A17" s="68" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="21" t="s">
+      <c r="G17" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>79</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>31</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="J17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" s="95">
+      <c r="K17" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="87">
         <v>43396</v>
       </c>
       <c r="M17" s="2"/>
@@ -2667,41 +2667,41 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" ht="108" x14ac:dyDescent="0.2">
-      <c r="A18" s="79" t="s">
+    <row r="18" spans="1:21" ht="96" x14ac:dyDescent="0.3">
+      <c r="A18" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="96" t="s">
+      <c r="B18" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="E18" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="21" t="s">
+      <c r="G18" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>31</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="L18" s="95">
+      <c r="K18" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="87">
         <v>43396</v>
       </c>
       <c r="M18" s="2"/>
@@ -2711,41 +2711,41 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="120" x14ac:dyDescent="0.2">
-      <c r="A19" s="76" t="s">
+    <row r="19" spans="1:21" ht="108" x14ac:dyDescent="0.3">
+      <c r="A19" s="68" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="21" t="s">
+      <c r="G19" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>31</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="95">
+      <c r="K19" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="87">
         <v>43396</v>
       </c>
       <c r="M19" s="2"/>
@@ -2755,7 +2755,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -2763,7 +2763,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -2771,7 +2771,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -2779,7 +2779,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -2787,7 +2787,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -2795,7 +2795,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -2803,7 +2803,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -2811,7 +2811,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -2819,7 +2819,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2827,7 +2827,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -2835,7 +2835,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2843,7 +2843,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -2851,7 +2851,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -2859,7 +2859,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -2867,7 +2867,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -2875,7 +2875,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -2883,7 +2883,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -2891,7 +2891,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -2899,7 +2899,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -2907,7 +2907,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -2915,7 +2915,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -2923,7 +2923,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -2931,7 +2931,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -2939,7 +2939,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -2947,7 +2947,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -2955,7 +2955,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -2963,7 +2963,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -2971,7 +2971,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -2979,7 +2979,7 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -2987,7 +2987,7 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -2995,7 +2995,7 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -3003,7 +3003,7 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -3011,7 +3011,7 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -3019,7 +3019,7 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
     </row>
-    <row r="53" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -3027,7 +3027,7 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -3035,7 +3035,7 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -3043,7 +3043,7 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -3051,7 +3051,7 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -3059,7 +3059,7 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
     </row>
-    <row r="58" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -3067,7 +3067,7 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -3075,7 +3075,7 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -3083,7 +3083,7 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -3091,7 +3091,7 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -3099,7 +3099,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -3107,7 +3107,7 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="13:21" x14ac:dyDescent="0.3">
       <c r="M64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -3115,7 +3115,7 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="13:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="13:35" x14ac:dyDescent="0.3">
       <c r="M65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -3123,7 +3123,7 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="13:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="13:35" x14ac:dyDescent="0.3">
       <c r="M66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -3137,7 +3137,7 @@
       <c r="AH66" s="5"/>
       <c r="AI66" s="5"/>
     </row>
-    <row r="67" spans="13:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="13:35" x14ac:dyDescent="0.3">
       <c r="M67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -3151,7 +3151,7 @@
       <c r="AH67" s="5"/>
       <c r="AI67" s="5"/>
     </row>
-    <row r="68" spans="13:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="13:35" x14ac:dyDescent="0.3">
       <c r="M68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -3165,7 +3165,7 @@
       <c r="AH68" s="5"/>
       <c r="AI68" s="5"/>
     </row>
-    <row r="69" spans="13:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="13:35" x14ac:dyDescent="0.3">
       <c r="M69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -3179,7 +3179,7 @@
       <c r="AH69" s="5"/>
       <c r="AI69" s="5"/>
     </row>
-    <row r="70" spans="13:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="13:35" x14ac:dyDescent="0.3">
       <c r="M70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -3196,7 +3196,6 @@
   </sheetData>
   <autoFilter ref="A9:AS2328" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
-    <mergeCell ref="G11:G14"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="D11:D12"/>
@@ -3205,6 +3204,7 @@
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:G8"/>
+    <mergeCell ref="G11:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="J568:J692 J694 J696 J698 J700 J702 J704 J706 J708 J710:J716 J864:J987 J989:J1126 J1131:J1145 J1150:J1154 J1159:J1208 J1212:J1236 J1238:J1330 J1334:J1358 J1360:J1419 J1421:J1507 J1546:J1567 J1704:J1705 J1708:J1735 J1863:J1904 J1907:J1909 J1912 J1914:J1916 J1919:J1956 J1959:J1999 J2002:J2024 J2027:J2030 J2033 J2035:J2037 J2040:J2081 J2277:J64989 J9:J10 O620:O744 O746 O748 O750 O752 O754 O756 O758 O760 O762:O768 O916:O1039 O1041:O1178 O1183:O1197 O1202:O1206 O1211:O1260 O1264:O1288 O1290:O1382 O1386:O1410 O1412:O1471 O1473:O1559 O1598:O1619 O1756:O1757 O1760:O1787 O1915:O1956 O1959:O1961 O1964 O1966:O1968 O1971:O2008 O2011:O2051 O2054:O2076 O2079:O2082 O2085 O2087:O2089 O2092:O2133 O2329:O65041 O71:O603 J12:J551">
     <cfRule type="cellIs" dxfId="96" priority="138" stopIfTrue="1" operator="equal">
@@ -3574,20 +3574,20 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="77" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="44.42578125" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" customWidth="1"/>
+    <col min="5" max="5" width="51.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -3597,7 +3597,7 @@
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>19</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -3633,641 +3633,641 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
         <v>1</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="41">
         <v>2</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="74">
         <v>43396</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="87"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="51" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="79"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="88"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="85" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="80"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="47">
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
         <v>2</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="41">
         <v>2</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="74">
         <v>43396</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="89"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="51" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="81"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="51" t="s">
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="81"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="89"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="51" t="s">
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="81"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="90"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="45" t="s">
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="82"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="47">
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
         <v>3</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="41">
         <v>3</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="74">
         <v>43396</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="89"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="51" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="81"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="89"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="51" t="s">
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="81"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="89"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="51" t="s">
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="81"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="89"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="51" t="s">
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="81"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="89"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="51" t="s">
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="89"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86" t="s">
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="81"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="89"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86" t="s">
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="81"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="89"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86" t="s">
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="81"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="89"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86" t="s">
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="81"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="89"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86" t="s">
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="81"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="89"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86" t="s">
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="81"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="89"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="89"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86" t="s">
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="81"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="81"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="90"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85" t="s">
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="82"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-    </row>
-    <row r="27" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47">
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+    </row>
+    <row r="27" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
         <v>4</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="41">
         <v>4</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="74">
         <v>43396</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="48" t="s">
+      <c r="F27" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="89"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="51" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="81"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="89"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="51" t="s">
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="81"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="90"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="45" t="s">
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="82"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-    </row>
-    <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A31" s="47">
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+    </row>
+    <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
         <v>5</v>
       </c>
-      <c r="B31" s="48">
+      <c r="B31" s="41">
         <v>5</v>
       </c>
-      <c r="C31" s="82">
+      <c r="C31" s="74">
         <v>43396</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="48" t="s">
+      <c r="F31" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="48" t="s">
+      <c r="H31" s="41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="89"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="51" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="81"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="89"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="51" t="s">
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="81"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="90"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="45" t="s">
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="82"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-    </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A35" s="47">
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+    </row>
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A35" s="40">
         <v>6</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="82">
+      <c r="C35" s="74">
         <v>43396</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="48" t="s">
+      <c r="H35" s="41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="89"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="51" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="81"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="89"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="51" t="s">
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="81"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="89"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="51" t="s">
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="81"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="89"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="51" t="s">
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="81"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="89"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="51" t="s">
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="81"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="89"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86" t="s">
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="81"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="89"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86" t="s">
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="81"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="89"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86" t="s">
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="81"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="89"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86" t="s">
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="81"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="89"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86" t="s">
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="81"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="89"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86" t="s">
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="81"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="89"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86" t="s">
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="81"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="89"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86" t="s">
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="81"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="90"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85" t="s">
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="82"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
     </row>
   </sheetData>
   <dataValidations count="2">
